--- a/SevenRMart/src/main/java/ResourceFiles/TestData.xlsx
+++ b/SevenRMart/src/main/java/ResourceFiles/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7695" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ManageLocationPage" sheetId="5" r:id="rId5"/>
     <sheet name="PushNotificationTest" sheetId="6" r:id="rId6"/>
     <sheet name="ManageDeliveryBoy" sheetId="7" r:id="rId7"/>
+    <sheet name="ManageUsersPage" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>CorrectUsername</t>
   </si>
@@ -143,6 +144,24 @@
   </si>
   <si>
     <t>rrrahul</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>expectedResult</t>
+  </si>
+  <si>
+    <t>Test One</t>
+  </si>
+  <si>
+    <t>Tester@gmail.com</t>
+  </si>
+  <si>
+    <t>List Users</t>
   </si>
 </sst>
 </file>
@@ -756,8 +775,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,7 +1366,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1402,4 +1422,51 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857"/>
+    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Tester@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/SevenRMart/src/main/java/ResourceFiles/TestData.xlsx
+++ b/SevenRMart/src/main/java/ResourceFiles/TestData.xlsx
@@ -15,13 +15,15 @@
     <sheet name="PushNotificationTest" sheetId="6" r:id="rId6"/>
     <sheet name="ManageDeliveryBoy" sheetId="7" r:id="rId7"/>
     <sheet name="ManageUsersPage" sheetId="9" r:id="rId8"/>
+    <sheet name="ManageExpencePage" sheetId="10" r:id="rId9"/>
+    <sheet name="ManageSliderPage" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>CorrectUsername</t>
   </si>
@@ -83,12 +85,36 @@
     <t>excptedAlert</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>max weight</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stock value</t>
+  </si>
+  <si>
     <t>Cake</t>
   </si>
   <si>
     <t>ButterCake</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -128,7 +154,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>alertmessageexcpct</t>
+    <t>phonNo</t>
   </si>
   <si>
     <t>Rahul</t>
@@ -146,6 +172,9 @@
     <t>rrrahul</t>
   </si>
   <si>
+    <t>12345678</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -155,6 +184,9 @@
     <t>expectedResult</t>
   </si>
   <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
     <t>Test One</t>
   </si>
   <si>
@@ -162,17 +194,39 @@
   </si>
   <si>
     <t>List Users</t>
+  </si>
+  <si>
+    <t>9638527411</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>01-11-2022</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http:flowerpic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -775,9 +829,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,6 +1219,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
@@ -1238,13 +1328,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -1254,7 +1344,7 @@
     <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1264,16 +1354,40 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1298,18 +1412,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1338,18 +1452,18 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1367,7 +1481,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1376,46 +1490,47 @@
     <col min="3" max="3" width="21.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="9.57142857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1427,39 +1542,45 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857"/>
+    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1469,4 +1590,40 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>